--- a/build2.7_260206/results/東北・北陸の冬季作付けなし/2.7b_data2022_import4_wval100_unlim_fbal_cfim50_results.xlsx
+++ b/build2.7_260206/results/東北・北陸の冬季作付けなし/2.7b_data2022_import4_wval100_unlim_fbal_cfim50_results.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ikiyo\OneDrive\MAFF_2025\workspace simul\results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{554DFD0E-82F4-434B-9A0D-978AFC76C447}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0981F3FA-A0D9-4555-A362-2A11DAF82C56}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2880" windowWidth="19200" windowHeight="11170" firstSheet="2" activeTab="7" xr2:uid="{D0642886-F131-4CE1-B14C-DDCBD37A6836}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" activeTab="7" xr2:uid="{86C453A3-4F4E-420E-A488-A8844C7ED978}"/>
   </bookViews>
   <sheets>
     <sheet name="pcroprep" sheetId="1" r:id="rId1"/>
@@ -701,7 +701,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D2B8126-5C3C-4A7D-8051-6A2C6FE31C59}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE25011F-C40F-410B-BE97-73860E49610E}">
   <dimension ref="A1:G58"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -1374,11 +1374,17 @@
       <c r="C35">
         <v>66.400000000000006</v>
       </c>
+      <c r="D35">
+        <v>1.4105556681109279</v>
+      </c>
       <c r="E35">
         <v>241.4</v>
       </c>
+      <c r="F35">
+        <v>5.1292933385851915</v>
+      </c>
       <c r="G35">
-        <v>-241.4</v>
+        <v>-236.27070666141481</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.55000000000000004">
@@ -1461,16 +1467,16 @@
         <v>1471.1000000000006</v>
       </c>
       <c r="D39">
-        <v>1175.9820530635532</v>
+        <v>1177.392608731664</v>
       </c>
       <c r="E39">
         <v>806.59999999999991</v>
       </c>
       <c r="F39">
-        <v>365.87259073896371</v>
+        <v>371.00188407754888</v>
       </c>
       <c r="G39">
-        <v>-440.72740926103626</v>
+        <v>-435.59811592245109</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.55000000000000004">
@@ -1851,7 +1857,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F38FE601-E930-4E66-BCBE-50BEF02CB0AA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1904A5AC-CC7A-4CD3-8B53-F380D2957DB1}">
   <dimension ref="A1:G22"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -2317,7 +2323,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4CF6E722-A29A-4A20-963F-25F7A7D9345A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED63A69E-D0DB-48CC-8223-393FEB2B2604}">
   <dimension ref="A1:G19"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -2744,7 +2750,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63DF2373-4034-43C2-87A6-67DBA5E08FED}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{59CCC509-F077-4AC0-8B04-660D08023376}">
   <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -2874,13 +2880,13 @@
         <v>2461.5000000000014</v>
       </c>
       <c r="E6">
-        <v>1501.4062343883368</v>
+        <v>1502.8167900564476</v>
       </c>
       <c r="F6">
-        <v>-656.37927981734606</v>
+        <v>-654.96872414923519</v>
       </c>
       <c r="G6">
-        <v>69.58088394346413</v>
+        <v>69.646254466105248</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.55000000000000004">
@@ -2897,13 +2903,13 @@
         <v>92.90000000000002</v>
       </c>
       <c r="E7">
-        <v>57.277300960093434</v>
+        <v>57.338852480156461</v>
       </c>
       <c r="F7">
-        <v>-12.850889916257124</v>
+        <v>-12.789338396194097</v>
       </c>
       <c r="G7">
-        <v>81.675144110140096</v>
+        <v>81.762914120023225</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.55000000000000004">
@@ -2920,13 +2926,13 @@
         <v>60.9</v>
       </c>
       <c r="E8">
-        <v>23.886519722448632</v>
+        <v>23.8967783091258</v>
       </c>
       <c r="F8">
-        <v>-40.84704570372184</v>
+        <v>-40.836787117044672</v>
       </c>
       <c r="G8">
-        <v>36.899743688135857</v>
+        <v>36.915591087564003</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.55000000000000004">
@@ -2943,13 +2949,13 @@
         <v>299.09999999999997</v>
       </c>
       <c r="E9">
-        <v>247.53058278334453</v>
+        <v>247.79858836028561</v>
       </c>
       <c r="F9">
-        <v>-76.137244347507817</v>
+        <v>-75.869238770566739</v>
       </c>
       <c r="G9">
-        <v>76.476733871752089</v>
+        <v>76.559536533764188</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.55000000000000004">
@@ -3051,7 +3057,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55137120-5C7A-4DCB-9956-1FF935A5C738}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0419F19-BCB6-4FF6-86B8-C2A25E77A1ED}">
   <dimension ref="A1:F33"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -3318,8 +3324,14 @@
       <c r="C15">
         <v>241.4</v>
       </c>
+      <c r="D15">
+        <v>5.1292933385851915</v>
+      </c>
+      <c r="E15">
+        <v>2.1248108279143296</v>
+      </c>
       <c r="F15">
-        <v>-241.4</v>
+        <v>-236.27070666141481</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -3645,7 +3657,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ECF263DE-9DCC-49EA-AD4A-0B666FC82600}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D7E212C-65D7-4F08-89A5-1B244D9F1AD1}">
   <dimension ref="A1:Z56"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -3988,6 +4000,9 @@
       <c r="P11">
         <v>765.76700000000005</v>
       </c>
+      <c r="S11">
+        <v>10.434000000000033</v>
+      </c>
       <c r="T11">
         <v>36.200000000000003</v>
       </c>
@@ -6031,7 +6046,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6638349B-9F05-40B3-8A09-C94301BE1B43}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9761931D-A449-4051-83CD-C705155D8FBF}">
   <dimension ref="A1:AF5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -6193,6 +6208,9 @@
       <c r="O3">
         <v>4.2882951999999912E-2</v>
       </c>
+      <c r="R3">
+        <v>8.5037100000000098E-3</v>
+      </c>
       <c r="S3">
         <v>9.665399999999981E-2</v>
       </c>
@@ -6215,7 +6233,7 @@
         <v>1.3144395656845128E-2</v>
       </c>
       <c r="AF3">
-        <v>1.3588661430208133</v>
+        <v>1.3673698530208134</v>
       </c>
     </row>
     <row r="4" spans="1:32" x14ac:dyDescent="0.55000000000000004">
@@ -6367,7 +6385,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{598DF400-78E8-4B68-8FC6-10C536CAA3E3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CFCF9D32-EFF6-4623-95BA-D988C317DA5D}">
   <dimension ref="A1:Z13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
@@ -6590,6 +6608,9 @@
       <c r="P5">
         <v>26036.077999999998</v>
       </c>
+      <c r="S5">
+        <v>2869.350000000009</v>
+      </c>
       <c r="T5">
         <v>7891.6</v>
       </c>
@@ -6606,7 +6627,7 @@
         <v>8864</v>
       </c>
       <c r="Z5">
-        <v>390322.78386399994</v>
+        <v>393192.13386399997</v>
       </c>
     </row>
     <row r="6" spans="1:26" x14ac:dyDescent="0.55000000000000004">
@@ -6628,6 +6649,9 @@
       <c r="P6">
         <v>70450.563999999998</v>
       </c>
+      <c r="S6">
+        <v>1721.6100000000054</v>
+      </c>
       <c r="T6">
         <v>4850.8</v>
       </c>
@@ -6644,7 +6668,7 @@
         <v>13850</v>
       </c>
       <c r="Z6">
-        <v>491295.77162400004</v>
+        <v>493017.38162400003</v>
       </c>
     </row>
     <row r="7" spans="1:26" x14ac:dyDescent="0.55000000000000004">
@@ -6666,6 +6690,9 @@
       <c r="P7">
         <v>66621.728999999992</v>
       </c>
+      <c r="S7">
+        <v>2744.1420000000085</v>
+      </c>
       <c r="T7">
         <v>5647.2000000000007</v>
       </c>
@@ -6682,7 +6709,7 @@
         <v>8864</v>
       </c>
       <c r="Z7">
-        <v>455759.52767199994</v>
+        <v>458503.66967199993</v>
       </c>
     </row>
     <row r="8" spans="1:26" x14ac:dyDescent="0.55000000000000004">
